--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12516" windowHeight="6852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13944" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="Recruitment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>JobTitle</t>
   </si>
@@ -49,6 +48,12 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
   </si>
 </sst>
 </file>
@@ -415,7 +420,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +435,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -442,7 +447,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$2</xm:f>
+            <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -454,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +480,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Recruitment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,12 +34,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Date Format : YYYY-DD-MM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Date Format : YYYY-DD-MM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>JobTitle</t>
   </si>
@@ -54,13 +92,22 @@
   </si>
   <si>
     <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-dd\-mm"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +135,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,10 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,25 +478,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45677</v>
+      </c>
+      <c r="C2" s="3">
+        <v>46011</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13944" windowHeight="4260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="8004"/>
   </bookViews>
   <sheets>
     <sheet name="Recruitment" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -72,12 +73,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select Value From Drop Dwon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Select Value From Drop Dwon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Select Value From Drop Dwon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide Candidate Name
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Provide Key Word</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Select Value From Drop Dwon</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>JobTitle</t>
   </si>
@@ -98,6 +185,84 @@
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>HiringManager</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>MethodofApplication</t>
+  </si>
+  <si>
+    <t>Junior Account Assistant</t>
+  </si>
+  <si>
+    <t>Payroll Administrator</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Senior QA Lead</t>
+  </si>
+  <si>
+    <t>Embun Jati</t>
+  </si>
+  <si>
+    <t>Rahul Patil</t>
+  </si>
+  <si>
+    <t>joker selvam</t>
+  </si>
+  <si>
+    <t>Application Initiated</t>
+  </si>
+  <si>
+    <t>Shortlisted</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Interview Scheduled</t>
+  </si>
+  <si>
+    <t>Interview Passed</t>
+  </si>
+  <si>
+    <t>Interview Failed</t>
+  </si>
+  <si>
+    <t>Job Offered</t>
+  </si>
+  <si>
+    <t>Offer Declined</t>
+  </si>
+  <si>
+    <t>Hired</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Jokey</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>CandidateName</t>
   </si>
 </sst>
 </file>
@@ -105,7 +270,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-dd\-mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-dd\-mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -114,12 +279,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -148,6 +307,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,11 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,39 +644,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>45677</v>
-      </c>
-      <c r="C2" s="3">
-        <v>46011</v>
+      <c r="B2" s="4">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="4">
+        <v>47847</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -519,12 +725,36 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$1:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$D$1:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -534,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,25 +775,107 @@
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -164,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>JobTitle</t>
   </si>
@@ -263,6 +262,15 @@
   </si>
   <si>
     <t>CandidateName</t>
+  </si>
+  <si>
+    <t>Ranga Akunuri</t>
+  </si>
+  <si>
+    <t>Rahul Das</t>
+  </si>
+  <si>
+    <t>Sai Sudhasri Naidu</t>
   </si>
 </sst>
 </file>
@@ -647,7 +655,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -740,7 +748,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$C$1:$C$3</xm:f>
+            <xm:f>Sheet1!$C$1:$C$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
@@ -767,12 +775,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -831,7 +840,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
@@ -839,7 +850,9 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
@@ -847,7 +860,9 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
@@ -879,5 +894,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -44,7 +44,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Date Format : YYYY-DD-MM</t>
+          <t>Date Format : YYYY-MM-DD</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Date Format : YYYY-DD-MM</t>
+          <t>Date Format : YYYY-MM-DD</t>
         </r>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>JobTitle</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Sai Sudhasri Naidu</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Reset</t>
   </si>
 </sst>
 </file>
@@ -278,9 +287,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-dd\-mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +330,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,12 +358,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +686,7 @@
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,15 +714,18 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>45658</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>47847</v>
       </c>
       <c r="D2" t="s">
@@ -725,6 +745,9 @@
       </c>
       <c r="I2" t="s">
         <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +756,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
@@ -764,6 +787,12 @@
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -772,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C4:C6"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +813,7 @@
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,8 +829,11 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -817,8 +849,11 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -833,7 +868,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -848,7 +883,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -858,7 +893,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -868,7 +903,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -876,7 +911,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -884,7 +919,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">

--- a/SeleniumAutomation/testdata/OrangeHRM.xlsx
+++ b/SeleniumAutomation/testdata/OrangeHRM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="8004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="8004" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recruitment" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Add" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -162,8 +163,61 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select Value From Drop Dwon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Provide Path of file</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date Format : YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>JobTitle</t>
   </si>
@@ -280,6 +334,57 @@
   </si>
   <si>
     <t>Reset</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>DateofApplication</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Consenttokeepdata</t>
+  </si>
+  <si>
+    <t>Jonny</t>
+  </si>
+  <si>
+    <t>Janardhan</t>
+  </si>
+  <si>
+    <t>Jon@gmail.com</t>
+  </si>
+  <si>
+    <t>F:\\ManKind\\Performance Documents\\Personal Docs\\Core Java (1).pdf</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -287,7 +392,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -358,13 +463,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,20 +906,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>9597532486</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6">
+        <v>45761</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$1:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$G$1:$G$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,8 +1056,11 @@
       <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -852,8 +1079,11 @@
       <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -868,7 +1098,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -883,8 +1113,10 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
@@ -893,7 +1125,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -903,7 +1135,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -911,7 +1143,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -919,7 +1151,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
